--- a/data/snowballing/study_set_2.xlsx
+++ b/data/snowballing/study_set_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzinger\Documents\snowballing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzinger\Documents\data\data\snowballing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E8749-0C0E-4865-B26D-B5E815393C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C414DCA2-06D1-4C94-B0D4-1967E47F6662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="918">
   <si>
     <t>record_id</t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t>https://doi.org/10.15353/rea.v10i1.1509</t>
+  </si>
+  <si>
+    <t>dr</t>
   </si>
   <si>
     <t xml:space="preserve">Extract IRF, Aleksandr; Also coded in Christidou_2018_heterogeneous in study set 7. Only use one  of these.  </t>
@@ -2886,7 +2889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2906,9 +2909,12 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Predeterminado" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3294,23 +3300,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="14"/>
-    <col min="5" max="5" width="19.5546875" style="14"/>
-    <col min="7" max="8" width="19.5546875" style="14"/>
-    <col min="14" max="17" width="19.5546875" style="14"/>
-    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" style="14"/>
-    <col min="23" max="23" width="25.33203125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="28.33203125" style="9" customWidth="1"/>
-    <col min="29" max="29" width="25.88671875" style="9" customWidth="1"/>
-    <col min="30" max="30" width="19.5546875" style="14"/>
-    <col min="33" max="33" width="19.5546875" style="14"/>
+    <col min="1" max="1" width="20.5546875" style="14"/>
+    <col min="5" max="5" width="20.5546875" style="14"/>
+    <col min="7" max="8" width="20.5546875" style="14"/>
+    <col min="14" max="17" width="20.5546875" style="14"/>
+    <col min="19" max="19" width="20.5546875" style="20"/>
+    <col min="21" max="21" width="20.5546875" style="14"/>
+    <col min="23" max="23" width="26.5546875" style="9" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="27.21875" style="9" customWidth="1"/>
+    <col min="30" max="30" width="20.5546875" style="14"/>
+    <col min="33" max="33" width="20.5546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3368,7 +3374,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -3905,7 +3911,7 @@
       <c r="R8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="16">
         <v>45070</v>
       </c>
       <c r="T8" s="3" t="s">
@@ -4060,7 +4066,7 @@
       <c r="R10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="17">
         <v>45070</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -4939,7 +4945,7 @@
       <c r="R22" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="17">
         <v>45070</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -5763,7 +5769,7 @@
       <c r="R33" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="18">
         <v>45071</v>
       </c>
       <c r="T33" s="6" t="s">
@@ -6342,7 +6348,7 @@
       <c r="R41" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="19">
         <v>45071</v>
       </c>
       <c r="T41" s="8" t="s">
@@ -6934,7 +6940,7 @@
       <c r="R49" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="S49" s="15">
+      <c r="S49" s="18">
         <v>45071</v>
       </c>
       <c r="T49" s="6" t="s">
@@ -7618,6 +7624,9 @@
       <c r="Y58" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="Z58" t="s">
+        <v>554</v>
+      </c>
       <c r="AD58" s="9">
         <v>1</v>
       </c>
@@ -7625,7 +7634,7 @@
         <v>545</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG58" s="9">
         <v>1</v>
@@ -7636,19 +7645,19 @@
         <v>8597</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E59" s="9">
         <v>2016</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G59" s="9">
         <v>4</v>
@@ -7660,16 +7669,16 @@
         <v>50</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N59" s="9">
         <v>1</v>
@@ -7684,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S59" s="15">
         <v>45071</v>
@@ -7699,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>44</v>
@@ -7710,19 +7719,19 @@
         <v>2422</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E60" s="9">
         <v>2015</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G60" s="9">
         <v>2</v>
@@ -7734,13 +7743,13 @@
         <v>50</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N60" s="9">
         <v>0</v>
@@ -7755,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S60" s="15">
         <v>45071</v>
@@ -7767,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="W60" s="9">
         <v>0</v>
@@ -7784,19 +7793,19 @@
         <v>9665</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E61" s="9">
         <v>2015</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G61" s="9">
         <v>2</v>
@@ -7808,28 +7817,28 @@
         <v>50</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M61" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N61" s="9">
+        <v>1</v>
+      </c>
+      <c r="O61" s="9">
+        <v>0</v>
+      </c>
+      <c r="P61" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="N61" s="9">
-        <v>1</v>
-      </c>
-      <c r="O61" s="9">
-        <v>0</v>
-      </c>
-      <c r="P61" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="S61" s="15">
         <v>45071</v>
@@ -7844,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>44</v>
@@ -7855,31 +7864,31 @@
         <v>10043</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E62" s="9">
         <v>2002</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>245</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N62" s="9">
         <v>1</v>
@@ -7894,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S62" s="15">
         <v>45071</v>
@@ -7923,19 +7932,19 @@
         <v>7093</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E63" s="9">
         <v>2022</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G63" s="9">
         <v>6</v>
@@ -7947,16 +7956,16 @@
         <v>50</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N63" s="9">
         <v>1</v>
@@ -7971,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S63" s="15">
         <v>45071</v>
@@ -7986,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>44</v>
@@ -7997,46 +8006,46 @@
         <v>7062</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E64" s="9">
         <v>2022</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>523</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M64" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="N64" s="9">
+        <v>1</v>
+      </c>
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="N64" s="9">
-        <v>1</v>
-      </c>
-      <c r="O64" s="9">
-        <v>0</v>
-      </c>
-      <c r="P64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="S64" s="15">
         <v>45071</v>
@@ -8051,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>44</v>
@@ -8062,19 +8071,19 @@
         <v>1400</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E65" s="9">
         <v>2018</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G65" s="9">
         <v>2</v>
@@ -8086,13 +8095,13 @@
         <v>50</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N65" s="9">
         <v>1</v>
@@ -8107,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S65" s="15">
         <v>45071</v>
@@ -8122,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Y65" s="1" t="s">
         <v>44</v>
@@ -8133,13 +8142,13 @@
         <v>255</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E66" s="9">
         <v>2017</v>
@@ -8154,13 +8163,13 @@
         <v>50</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N66" s="9">
         <v>1</v>
@@ -8175,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="S66" s="15">
         <v>45071</v>
@@ -8201,19 +8210,19 @@
         <v>2976</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E67" s="9">
         <v>2018</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G67" s="9">
         <v>6</v>
@@ -8225,13 +8234,13 @@
         <v>50</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N67" s="9">
         <v>1</v>
@@ -8246,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="S67" s="15">
         <v>45071</v>
@@ -8272,19 +8281,19 @@
         <v>1219</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E68" s="9">
         <v>2021</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G68" s="9">
         <v>3</v>
@@ -8296,13 +8305,13 @@
         <v>50</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N68" s="9">
         <v>1</v>
@@ -8317,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="S68" s="15">
         <v>45071</v>
@@ -8335,7 +8344,7 @@
         <v>44</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG68" s="9">
         <v>1</v>
@@ -8346,19 +8355,19 @@
         <v>606</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="9">
         <v>2021</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H69" s="9">
         <v>61</v>
@@ -8367,13 +8376,13 @@
         <v>50</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N69" s="9">
         <v>1</v>
@@ -8388,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S69" s="15">
         <v>45071</v>
@@ -8406,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y69" s="1" t="s">
         <v>44</v>
@@ -8417,19 +8426,19 @@
         <v>6539</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E70" s="9">
         <v>2017</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G70" s="9">
         <v>2</v>
@@ -8438,13 +8447,13 @@
         <v>50</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N70" s="9">
         <v>1</v>
@@ -8459,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="S70" s="15">
         <v>45071</v>
@@ -8471,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="W70" s="9">
         <v>0</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Y70" s="1" t="s">
         <v>44</v>
@@ -8488,13 +8497,13 @@
         <v>1066</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E71" s="9">
         <v>2007</v>
@@ -8503,13 +8512,13 @@
         <v>181</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N71" s="9">
         <v>1</v>
@@ -8524,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="S71" s="15">
         <v>45071</v>
@@ -8539,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Y71" s="1" t="s">
         <v>44</v>
@@ -8550,19 +8559,19 @@
         <v>1786</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E72" s="9">
         <v>2000</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G72" s="9">
         <v>4</v>
@@ -8574,16 +8583,16 @@
         <v>50</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N72" s="9">
         <v>1</v>
@@ -8598,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="S72" s="15">
         <v>45071</v>
@@ -8613,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Y72" s="1" t="s">
         <v>44</v>
@@ -8624,19 +8633,19 @@
         <v>10040</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E73" s="9">
         <v>2017</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G73" s="9">
         <v>3</v>
@@ -8648,16 +8657,16 @@
         <v>50</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N73" s="9">
         <v>1</v>
@@ -8672,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="S73" s="15">
         <v>45071</v>
@@ -8701,13 +8710,13 @@
         <v>1831</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E74" s="9">
         <v>2014</v>
@@ -8725,13 +8734,13 @@
         <v>50</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N74" s="9">
         <v>1</v>
@@ -8746,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="S74" s="15">
         <v>45076</v>
@@ -8761,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Y74" s="1" t="s">
         <v>44</v>
@@ -8772,19 +8781,19 @@
         <v>10516</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E75" s="9">
         <v>2022</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -8796,28 +8805,28 @@
         <v>50</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M75" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="N75" s="9">
+        <v>1</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="N75" s="9">
-        <v>1</v>
-      </c>
-      <c r="O75" s="9">
-        <v>0</v>
-      </c>
-      <c r="P75" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="9">
-        <v>0</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="S75" s="15">
         <v>45076</v>
@@ -8832,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Y75" s="1" t="s">
         <v>44</v>
@@ -8843,19 +8852,19 @@
         <v>577</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E76" s="9">
         <v>2019</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G76" s="9">
         <v>13</v>
@@ -8867,16 +8876,16 @@
         <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N76" s="9">
         <v>1</v>
@@ -8891,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="S76" s="15">
         <v>45076</v>
@@ -8920,31 +8929,31 @@
         <v>7647</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E77" s="9">
         <v>2019</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>245</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N77" s="9">
         <v>1</v>
@@ -8959,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="S77" s="15">
         <v>45076</v>
@@ -8983,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF77" s="1"/>
       <c r="AG77" s="9">
@@ -8995,28 +9004,28 @@
         <v>7476</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E78" s="9">
         <v>2022</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>245</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N78" s="9">
         <v>1</v>
@@ -9031,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S78" s="15">
         <v>45076</v>
@@ -9049,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y78" s="1" t="s">
         <v>44</v>
@@ -9060,19 +9069,19 @@
         <v>1300</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E79" s="9">
         <v>2022</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
@@ -9084,13 +9093,13 @@
         <v>50</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N79" s="9">
         <v>1</v>
@@ -9105,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="S79" s="15">
         <v>45076</v>
@@ -9129,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG79" s="9">
         <v>1</v>
@@ -9140,13 +9149,13 @@
         <v>2896</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E80" s="9">
         <v>2017</v>
@@ -9155,13 +9164,13 @@
         <v>181</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N80" s="9">
         <v>1</v>
@@ -9176,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="S80" s="15">
         <v>45076</v>
@@ -9205,19 +9214,19 @@
         <v>7454</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E81" s="9">
         <v>2021</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G81" s="9">
         <v>2</v>
@@ -9229,16 +9238,16 @@
         <v>50</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N81" s="9">
         <v>1</v>
@@ -9253,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="S81" s="15">
         <v>45076</v>
@@ -9268,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Y81" s="1" t="s">
         <v>44</v>
@@ -9279,19 +9288,19 @@
         <v>9198</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E82" s="9">
         <v>1989</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H82" s="9">
         <v>4</v>
@@ -9300,16 +9309,16 @@
         <v>50</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N82" s="9">
         <v>1</v>
@@ -9324,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="S82" s="15">
         <v>45076</v>
@@ -9339,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Y82" s="1" t="s">
         <v>44</v>
@@ -9350,19 +9359,19 @@
         <v>791</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E83" s="9">
         <v>2013</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -9374,13 +9383,13 @@
         <v>50</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N83" s="9">
         <v>1</v>
@@ -9395,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="S83" s="15">
         <v>45076</v>
@@ -9410,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y83" s="1" t="s">
         <v>44</v>
@@ -9419,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
@@ -9427,13 +9436,13 @@
         <v>10391</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E84" s="9">
         <v>2015</v>
@@ -9448,16 +9457,16 @@
         <v>50</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N84" s="9">
         <v>1</v>
@@ -9472,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="S84" s="15">
         <v>45076</v>
@@ -9498,19 +9507,19 @@
         <v>10316</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E85" s="9">
         <v>2007</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H85" s="9">
         <v>12</v>
@@ -9519,10 +9528,10 @@
         <v>50</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N85" s="9">
         <v>1</v>
@@ -9537,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="S85" s="15">
         <v>45076</v>
@@ -9566,28 +9575,28 @@
         <v>8760</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E86" s="9">
         <v>2015</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N86" s="9">
         <v>1</v>
@@ -9602,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="S86" s="15">
         <v>45076</v>
@@ -9631,19 +9640,19 @@
         <v>7480</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E87" s="9">
         <v>2019</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -9655,10 +9664,10 @@
         <v>50</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N87" s="9">
         <v>1</v>
@@ -9673,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S87" s="15">
         <v>45076</v>
@@ -9702,19 +9711,19 @@
         <v>932</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E88" s="9">
         <v>2014</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G88" s="9">
         <v>4</v>
@@ -9726,13 +9735,13 @@
         <v>50</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N88" s="9">
         <v>1</v>
@@ -9747,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="S88" s="15">
         <v>45076</v>
@@ -9765,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Y88" s="1" t="s">
         <v>44</v>
@@ -9776,19 +9785,19 @@
         <v>2404</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E89" s="9">
         <v>2020</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -9800,13 +9809,13 @@
         <v>50</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N89" s="9">
         <v>1</v>
@@ -9821,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="S89" s="15">
         <v>45076</v>
@@ -9847,13 +9856,13 @@
         <v>935</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E90" s="9">
         <v>2013</v>
@@ -9871,13 +9880,13 @@
         <v>50</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N90" s="9">
         <v>1</v>
@@ -9892,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="S90" s="15">
         <v>45076</v>
@@ -9918,19 +9927,19 @@
         <v>9408</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E91" s="9">
         <v>2021</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G91" s="9">
         <v>4</v>
@@ -9942,16 +9951,16 @@
         <v>50</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N91" s="9">
         <v>1</v>
@@ -9966,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="S91" s="15">
         <v>45076</v>
@@ -9992,19 +10001,19 @@
         <v>5218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E92" s="9">
         <v>2012</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G92" s="9">
         <v>1</v>
@@ -10016,13 +10025,13 @@
         <v>50</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="N92" s="9">
         <v>1</v>
@@ -10037,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="S92" s="15">
         <v>45076</v>
@@ -10067,46 +10076,46 @@
         <v>9611</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E93" s="9">
         <v>2013</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>245</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="M93" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="N93" s="9">
+        <v>1</v>
+      </c>
+      <c r="O93" s="9">
+        <v>0</v>
+      </c>
+      <c r="P93" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="N93" s="9">
-        <v>1</v>
-      </c>
-      <c r="O93" s="9">
-        <v>0</v>
-      </c>
-      <c r="P93" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="9">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="S93" s="15">
         <v>45076</v>
@@ -10124,13 +10133,13 @@
         <v>1</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Z93" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG93" s="9">
         <v>1</v>
@@ -10141,19 +10150,19 @@
         <v>5273</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E94" s="9">
         <v>2007</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G94" s="9">
         <v>3</v>
@@ -10165,13 +10174,13 @@
         <v>50</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N94" s="9">
         <v>1</v>
@@ -10186,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="S94" s="15">
         <v>45076</v>
@@ -10204,10 +10213,10 @@
         <v>1</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>44</v>
@@ -10216,13 +10225,13 @@
         <v>1</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AC94" s="9">
         <v>1</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG94" s="9">
         <v>1</v>
@@ -10233,19 +10242,19 @@
         <v>9535</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E95" s="9">
         <v>2010</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G95" s="9">
         <v>6</v>
@@ -10257,16 +10266,16 @@
         <v>50</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N95" s="9">
         <v>1</v>
@@ -10281,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="S95" s="15">
         <v>45076</v>
@@ -10299,7 +10308,7 @@
         <v>364</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
@@ -10307,13 +10316,13 @@
         <v>6368</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E96" s="9">
         <v>2014</v>
@@ -10322,28 +10331,28 @@
         <v>181</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M96" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="N96" s="9">
+        <v>1</v>
+      </c>
+      <c r="O96" s="9">
+        <v>0</v>
+      </c>
+      <c r="P96" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="N96" s="9">
-        <v>1</v>
-      </c>
-      <c r="O96" s="9">
-        <v>0</v>
-      </c>
-      <c r="P96" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="9">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="S96" s="15">
         <v>45076</v>
@@ -10358,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
@@ -10369,13 +10378,13 @@
         <v>1070</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E97" s="9">
         <v>2006</v>
@@ -10393,13 +10402,13 @@
         <v>50</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N97" s="9">
         <v>1</v>
@@ -10414,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="S97" s="15">
         <v>45076</v>
@@ -10432,7 +10441,7 @@
         <v>427</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
@@ -10440,13 +10449,13 @@
         <v>4709</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E98" s="9">
         <v>2012</v>
@@ -10455,13 +10464,13 @@
         <v>181</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N98" s="9">
         <v>0</v>
@@ -10485,16 +10494,16 @@
         <v>0</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="W98" s="9">
         <v>0</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
@@ -10502,19 +10511,19 @@
         <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E99" s="9">
         <v>2014</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G99" s="9">
         <v>8</v>
@@ -10526,16 +10535,16 @@
         <v>50</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N99" s="9">
         <v>1</v>
@@ -10550,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S99" s="15">
         <v>45076</v>
@@ -10568,13 +10577,13 @@
         <v>1</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Z99" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AG99" s="9">
         <v>1</v>
@@ -10585,19 +10594,19 @@
         <v>1213</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E100" s="9">
         <v>2022</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G100" s="9">
         <v>6</v>
@@ -10609,13 +10618,13 @@
         <v>50</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N100" s="9">
         <v>1</v>
@@ -10630,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="S100" s="15">
         <v>45076</v>
@@ -10648,7 +10657,7 @@
         <v>167</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
@@ -10656,19 +10665,19 @@
         <v>1429</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E101" s="9">
         <v>2022</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G101" s="9">
         <v>2</v>
@@ -10680,13 +10689,13 @@
         <v>50</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N101" s="9">
         <v>1</v>
@@ -10701,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="S101" s="15">
         <v>45076</v>
@@ -10716,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
